--- a/doc/Andalusier documenten/Individuele taakverdeling/Gerrit K/Gerrit K. taken.xlsx
+++ b/doc/Andalusier documenten/Individuele taakverdeling/Gerrit K/Gerrit K. taken.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karin\Desktop\Andalusier documenten\Individuele taakverdeling\Gerrit K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\andalusier\doc\Andalusier documenten\Individuele taakverdeling\Gerrit K\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,7 +189,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +218,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
         <bgColor rgb="FFE91D63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -313,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,6 +356,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +762,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -813,7 +821,7 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -950,7 +958,7 @@
       <c r="E15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">

--- a/doc/Andalusier documenten/Individuele taakverdeling/Gerrit K/Gerrit K. taken.xlsx
+++ b/doc/Andalusier documenten/Individuele taakverdeling/Gerrit K/Gerrit K. taken.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\andalusier\doc\Andalusier documenten\Individuele taakverdeling\Gerrit K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\htdocs\andalusier\doc\Andalusier documenten\Individuele taakverdeling\Gerrit K\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,8 +153,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -189,7 +189,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,9 +364,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -761,11 +768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="66.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -775,7 +782,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -794,7 +801,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -825,7 +832,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -837,14 +844,14 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -861,7 +868,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -880,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -890,7 +897,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
@@ -904,7 +911,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>18</v>
       </c>
@@ -918,7 +925,7 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -932,7 +939,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -944,9 +951,9 @@
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -960,7 +967,7 @@
       </c>
       <c r="F15" s="25"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -970,7 +977,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
@@ -982,9 +989,9 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
@@ -998,7 +1005,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
@@ -1012,7 +1019,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1022,7 +1029,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1036,7 +1043,7 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
@@ -1050,7 +1057,7 @@
       </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1071,7 @@
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
@@ -1078,7 +1085,7 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>41</v>
       </c>
